--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE754BE8-8BC1-47A8-A1A5-06804B7AB7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B1E7E-6696-478F-A5F1-081B270E246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -156,40 +156,277 @@
     <t xml:space="preserve">Boukhari barkahoum </t>
   </si>
   <si>
-    <t>720 bl 11 n)18</t>
-  </si>
-  <si>
-    <t>emir aek</t>
-  </si>
-  <si>
     <t>NB(363/2025)</t>
   </si>
   <si>
     <t>Ahmed messoud ali</t>
   </si>
   <si>
-    <t>720 bl 1 n)7</t>
-  </si>
-  <si>
     <t>NB(740/2025)</t>
   </si>
   <si>
     <t>Rais mouloud</t>
   </si>
   <si>
-    <t>720 bl 2 n)38</t>
-  </si>
-  <si>
     <t>NB(723/2025)</t>
   </si>
   <si>
     <t>Djouablia nawal</t>
   </si>
   <si>
-    <t>720 bl 3 n)23</t>
-  </si>
-  <si>
     <t>NB(737/2025)</t>
+  </si>
+  <si>
+    <t>NB(736/2025)</t>
+  </si>
+  <si>
+    <t>Log fonct lycee bousmaha</t>
+  </si>
+  <si>
+    <t>NB(747/2025)</t>
+  </si>
+  <si>
+    <t>Akaba said</t>
+  </si>
+  <si>
+    <t>NB(760/2025)</t>
+  </si>
+  <si>
+    <t>Achit fatma</t>
+  </si>
+  <si>
+    <t>Gheribi hamza</t>
+  </si>
+  <si>
+    <t>NB(758/2025)</t>
+  </si>
+  <si>
+    <t>Saidani med</t>
+  </si>
+  <si>
+    <t>NB(748/2025)</t>
+  </si>
+  <si>
+    <t>Rezrazi kamel</t>
+  </si>
+  <si>
+    <t>NB(756/2025)</t>
+  </si>
+  <si>
+    <t>Belhadj charaf eddine</t>
+  </si>
+  <si>
+    <t>NB(762/2025)</t>
+  </si>
+  <si>
+    <t>NB(630/2025)</t>
+  </si>
+  <si>
+    <t>Sissani khaled</t>
+  </si>
+  <si>
+    <t>Mezli aicha</t>
+  </si>
+  <si>
+    <t>720 bt 12 n38</t>
+  </si>
+  <si>
+    <t>NB(706/2025)</t>
+  </si>
+  <si>
+    <t>NB(011/2026)</t>
+  </si>
+  <si>
+    <t>Hanniche zehour</t>
+  </si>
+  <si>
+    <t>720 bt 5 n27</t>
+  </si>
+  <si>
+    <t>NB(550/2025)</t>
+  </si>
+  <si>
+    <t>Makhloufi messaoud</t>
+  </si>
+  <si>
+    <t>Djennane toubal</t>
+  </si>
+  <si>
+    <t>2025177277</t>
+  </si>
+  <si>
+    <t>NB(416/2025)</t>
+  </si>
+  <si>
+    <t>Youcef ezzine bensouna</t>
+  </si>
+  <si>
+    <t>720 bt 14 n24</t>
+  </si>
+  <si>
+    <t>2025177276</t>
+  </si>
+  <si>
+    <t>Ghiatou ouardia</t>
+  </si>
+  <si>
+    <t>720 bt 19 n34</t>
+  </si>
+  <si>
+    <t>NB(705/2025)</t>
+  </si>
+  <si>
+    <t>2025177961</t>
+  </si>
+  <si>
+    <t>NB(611/2025)</t>
+  </si>
+  <si>
+    <t>Benkortbi saad eddine</t>
+  </si>
+  <si>
+    <t>720 bt 13 n21</t>
+  </si>
+  <si>
+    <t>2025177962</t>
+  </si>
+  <si>
+    <t>Belzekour noureddine</t>
+  </si>
+  <si>
+    <t>720 bt 1 n5</t>
+  </si>
+  <si>
+    <t>NB(759/2025)</t>
+  </si>
+  <si>
+    <t>2025177279</t>
+  </si>
+  <si>
+    <t>NB(761/2025)</t>
+  </si>
+  <si>
+    <t>Anabi med</t>
+  </si>
+  <si>
+    <t>720 bt 1 n30</t>
+  </si>
+  <si>
+    <t>2025177280</t>
+  </si>
+  <si>
+    <t>NB(623/2025)</t>
+  </si>
+  <si>
+    <t>Ziane halima</t>
+  </si>
+  <si>
+    <t>720 bt 16 n21</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>2025177278</t>
+  </si>
+  <si>
+    <t>Bouguessa youcef</t>
+  </si>
+  <si>
+    <t>Ain omrane</t>
+  </si>
+  <si>
+    <t>NB(659/2025)</t>
+  </si>
+  <si>
+    <t>720 bt 17 n2</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>2025177324</t>
+  </si>
+  <si>
+    <t>NB(002/2026)</t>
+  </si>
+  <si>
+    <t>Reguieg chakib</t>
+  </si>
+  <si>
+    <t>720 bt 1 n29</t>
+  </si>
+  <si>
+    <t>2025177322</t>
+  </si>
+  <si>
+    <t>Bedoui ines</t>
+  </si>
+  <si>
+    <t>720 bt 8 n22</t>
+  </si>
+  <si>
+    <t>2025177328</t>
+  </si>
+  <si>
+    <t>Aouiche rabah</t>
+  </si>
+  <si>
+    <t>720 bt 17 n8</t>
+  </si>
+  <si>
+    <t>2025177275</t>
+  </si>
+  <si>
+    <t>Kouidri benyouef</t>
+  </si>
+  <si>
+    <t>720 bt 1 n11</t>
+  </si>
+  <si>
+    <t>2025177325</t>
+  </si>
+  <si>
+    <t>Boubakeur abdellah</t>
+  </si>
+  <si>
+    <t>720 bt 16 n17</t>
+  </si>
+  <si>
+    <t>NB(520/2025)</t>
+  </si>
+  <si>
+    <t>NB(752/2025)</t>
+  </si>
+  <si>
+    <t>NB(515/2025)</t>
+  </si>
+  <si>
+    <t>NB(590/2025)</t>
+  </si>
+  <si>
+    <t>2025177274</t>
+  </si>
+  <si>
+    <t>NB(543/2025)</t>
+  </si>
+  <si>
+    <t>Fergani bachir</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Cité hantabli</t>
+  </si>
+  <si>
+    <t>2025177271</t>
+  </si>
+  <si>
+    <t>Lassar tayeb</t>
+  </si>
+  <si>
+    <t>1ere tranche n3</t>
   </si>
 </sst>
 </file>
@@ -439,12 +676,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19060</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -461,8 +698,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="609610" y="3810000"/>
-          <a:ext cx="4419590" cy="5133975"/>
+          <a:off x="609610" y="7458075"/>
+          <a:ext cx="4448165" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -755,7 +992,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +1064,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -867,7 +1104,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -910,23 +1147,21 @@
         <v>18</v>
       </c>
       <c r="D7" s="13">
-        <v>2025177952</v>
+        <v>2025177951</v>
       </c>
       <c r="E7" s="15">
         <v>46026</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>25</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I7" s="20"/>
       <c r="J7" s="19"/>
       <c r="K7" s="4"/>
     </row>
@@ -942,23 +1177,21 @@
         <v>18</v>
       </c>
       <c r="D8" s="13">
-        <v>2025177957</v>
+        <v>2025177952</v>
       </c>
       <c r="E8" s="15">
         <v>46026</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="4"/>
     </row>
@@ -974,23 +1207,21 @@
         <v>18</v>
       </c>
       <c r="D9" s="13">
-        <v>2025177958</v>
+        <v>2025177957</v>
       </c>
       <c r="E9" s="15">
         <v>46026</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="4"/>
     </row>
@@ -1006,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="13">
-        <v>2025177959</v>
+        <v>2025177958</v>
       </c>
       <c r="E10" s="15">
         <v>46026</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
@@ -1020,9 +1251,7 @@
       <c r="H10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="4"/>
     </row>
@@ -1038,23 +1267,21 @@
         <v>18</v>
       </c>
       <c r="D11" s="13">
-        <v>2025177960</v>
+        <v>2025177959</v>
       </c>
       <c r="E11" s="15">
         <v>46026</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="4"/>
     </row>
@@ -1063,15 +1290,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2025177960</v>
+      </c>
+      <c r="E12" s="15">
+        <v>46026</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="17">
         <v>1</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="4"/>
@@ -1081,15 +1320,27 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2025177970</v>
+      </c>
+      <c r="E13" s="15">
+        <v>46026</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="17">
         <v>1</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="4"/>
@@ -1099,15 +1350,27 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2025177953</v>
+      </c>
+      <c r="E14" s="15">
+        <v>46027</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="4"/>
@@ -1117,15 +1380,27 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2025177954</v>
+      </c>
+      <c r="E15" s="15">
+        <v>46027</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="17">
         <v>1</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
@@ -1134,15 +1409,27 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2025177955</v>
+      </c>
+      <c r="E16" s="15">
+        <v>46027</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="17">
         <v>1</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
@@ -1151,15 +1438,27 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2025177967</v>
+      </c>
+      <c r="E17" s="15">
+        <v>46027</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
@@ -1168,15 +1467,27 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2025177968</v>
+      </c>
+      <c r="E18" s="15">
+        <v>46027</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="17">
         <v>1</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
@@ -1185,15 +1496,27 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2025177969</v>
+      </c>
+      <c r="E19" s="15">
+        <v>46027</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="G19" s="17">
         <v>1</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
@@ -1202,16 +1525,30 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2025177965</v>
+      </c>
+      <c r="E20" s="15">
+        <v>46029</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="17">
         <v>1</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,16 +1556,30 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2025177966</v>
+      </c>
+      <c r="E21" s="15">
+        <v>46029</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,16 +1587,28 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2025177963</v>
+      </c>
+      <c r="E22" s="15">
+        <v>46030</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,16 +1616,30 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2025177964</v>
+      </c>
+      <c r="E23" s="15">
+        <v>46030</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,16 +1647,30 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="15">
+        <v>46033</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,16 +1678,30 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="15">
+        <v>46033</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="20"/>
+      <c r="H25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,16 +1709,30 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="15">
+        <v>46033</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="20"/>
+      <c r="H26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,16 +1740,30 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="15">
+        <v>46033</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="20"/>
+      <c r="H27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,16 +1771,30 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="15">
+        <v>46035</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,16 +1802,30 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="15">
+        <v>46035</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="20"/>
+      <c r="H29" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,16 +1833,30 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="15">
+        <v>46035</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,16 +1864,30 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,16 +1895,30 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,16 +1926,30 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,16 +1957,30 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,16 +1988,30 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,16 +2019,30 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1491,16 +2050,30 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,9 +2544,9 @@
       <c r="H68" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I11">
-    <sortCondition ref="E7:E11"/>
-    <sortCondition ref="D7:D11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I37">
+    <sortCondition ref="E7:E37"/>
+    <sortCondition ref="D7:D37"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B1E7E-6696-478F-A5F1-081B270E246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CA724-112E-4197-9B5E-53EEDD4D5D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -339,12 +339,6 @@
     <t>NB(659/2025)</t>
   </si>
   <si>
-    <t>720 bt 17 n2</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
     <t>2025177324</t>
   </si>
   <si>
@@ -427,6 +421,72 @@
   </si>
   <si>
     <t>1ere tranche n3</t>
+  </si>
+  <si>
+    <t>2025177321</t>
+  </si>
+  <si>
+    <t>NB(498/2025)</t>
+  </si>
+  <si>
+    <t>Kridi aek</t>
+  </si>
+  <si>
+    <t>720 bt 8 n35</t>
+  </si>
+  <si>
+    <t>2025177273</t>
+  </si>
+  <si>
+    <t>NB(024/2026)</t>
+  </si>
+  <si>
+    <t>Toumi f/zohra</t>
+  </si>
+  <si>
+    <t>720 bt 13 n32</t>
+  </si>
+  <si>
+    <t>NB(387/2025)</t>
+  </si>
+  <si>
+    <t>Zaidi souhaib</t>
+  </si>
+  <si>
+    <t>720 bt 17 n9</t>
+  </si>
+  <si>
+    <t>2025177559</t>
+  </si>
+  <si>
+    <t>Sahlaoui lyes</t>
+  </si>
+  <si>
+    <t>720 bt 10 n31</t>
+  </si>
+  <si>
+    <t>NB(556/2025)</t>
+  </si>
+  <si>
+    <t>2025177330</t>
+  </si>
+  <si>
+    <t>Belkahla rachid</t>
+  </si>
+  <si>
+    <t>Djennane toubal bt A n15</t>
+  </si>
+  <si>
+    <t>NB(755/2025)</t>
+  </si>
+  <si>
+    <t>Fatmi aek</t>
+  </si>
+  <si>
+    <t>720 bt 5 n3</t>
+  </si>
+  <si>
+    <t>2025177272</t>
   </si>
 </sst>
 </file>
@@ -675,15 +735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19060</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>66685</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -698,8 +758,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="609610" y="7458075"/>
-          <a:ext cx="4448165" cy="1485900"/>
+          <a:off x="657235" y="9934575"/>
+          <a:ext cx="4448165" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -991,8 +1051,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1063,7 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -1064,7 +1124,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -1104,7 +1164,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,14 +1660,16 @@
         <v>46030</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="I22" s="20" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="J22" s="20"/>
     </row>
@@ -1771,29 +1833,29 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>81</v>
+      <c r="B28" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E28" s="15">
         <v>46035</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>83</v>
+      <c r="H28" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="J28" s="20"/>
     </row>
@@ -1809,22 +1871,22 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E29" s="15">
         <v>46035</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>75</v>
+      <c r="H29" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="J29" s="20"/>
     </row>
@@ -1833,29 +1895,29 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>19</v>
+      <c r="B30" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E30" s="15">
         <v>46035</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1864,29 +1926,29 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E31" s="15">
-        <v>46036</v>
+        <v>46035</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>115</v>
+      <c r="H31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1895,29 +1957,29 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>111</v>
+      <c r="B32" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E32" s="15">
-        <v>46036</v>
+        <v>46035</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>110</v>
+      <c r="H32" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1933,22 +1995,22 @@
         <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E33" s="15">
         <v>46036</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -1958,13 +2020,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E34" s="15">
         <v>46036</v>
@@ -1976,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -1995,22 +2057,22 @@
         <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E35" s="15">
         <v>46036</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>90</v>
+      <c r="H35" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -2026,22 +2088,22 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E36" s="15">
         <v>46036</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -2057,22 +2119,22 @@
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E37" s="15">
         <v>46036</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>96</v>
+      <c r="H37" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -2081,16 +2143,30 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
+      <c r="B38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="G38" s="17">
         <v>1</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="H38" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,60 +2174,120 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <f>+A39+1</f>
         <v>34</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="15">
+        <v>46036</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="G40" s="17">
         <v>1</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="15">
+        <v>46040</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="15">
+        <v>46040</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
@@ -2544,9 +2680,9 @@
       <c r="H68" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I37">
-    <sortCondition ref="E7:E37"/>
-    <sortCondition ref="D7:D37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I42">
+    <sortCondition ref="E7:E42"/>
+    <sortCondition ref="D7:D42"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CA724-112E-4197-9B5E-53EEDD4D5D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82B67A7-5C49-4078-867B-EB75125E25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="173">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Mezli aicha</t>
   </si>
   <si>
-    <t>720 bt 12 n38</t>
-  </si>
-  <si>
     <t>NB(706/2025)</t>
   </si>
   <si>
@@ -240,18 +237,12 @@
     <t>Hanniche zehour</t>
   </si>
   <si>
-    <t>720 bt 5 n27</t>
-  </si>
-  <si>
     <t>NB(550/2025)</t>
   </si>
   <si>
     <t>Makhloufi messaoud</t>
   </si>
   <si>
-    <t>Djennane toubal</t>
-  </si>
-  <si>
     <t>2025177277</t>
   </si>
   <si>
@@ -261,18 +252,12 @@
     <t>Youcef ezzine bensouna</t>
   </si>
   <si>
-    <t>720 bt 14 n24</t>
-  </si>
-  <si>
     <t>2025177276</t>
   </si>
   <si>
     <t>Ghiatou ouardia</t>
   </si>
   <si>
-    <t>720 bt 19 n34</t>
-  </si>
-  <si>
     <t>NB(705/2025)</t>
   </si>
   <si>
@@ -285,18 +270,12 @@
     <t>Benkortbi saad eddine</t>
   </si>
   <si>
-    <t>720 bt 13 n21</t>
-  </si>
-  <si>
     <t>2025177962</t>
   </si>
   <si>
     <t>Belzekour noureddine</t>
   </si>
   <si>
-    <t>720 bt 1 n5</t>
-  </si>
-  <si>
     <t>NB(759/2025)</t>
   </si>
   <si>
@@ -360,9 +339,6 @@
     <t>720 bt 8 n22</t>
   </si>
   <si>
-    <t>2025177328</t>
-  </si>
-  <si>
     <t>Aouiche rabah</t>
   </si>
   <si>
@@ -453,9 +429,6 @@
     <t>Zaidi souhaib</t>
   </si>
   <si>
-    <t>720 bt 17 n9</t>
-  </si>
-  <si>
     <t>2025177559</t>
   </si>
   <si>
@@ -487,6 +460,144 @@
   </si>
   <si>
     <t>2025177272</t>
+  </si>
+  <si>
+    <t>2025177831</t>
+  </si>
+  <si>
+    <t>NB(701/2025)</t>
+  </si>
+  <si>
+    <t>Khelifa rabah</t>
+  </si>
+  <si>
+    <t>2025177554</t>
+  </si>
+  <si>
+    <t>Rahmani ali</t>
+  </si>
+  <si>
+    <t>720 bt 2 n7</t>
+  </si>
+  <si>
+    <t>NB(003/2026)</t>
+  </si>
+  <si>
+    <t>2025177553</t>
+  </si>
+  <si>
+    <t>NB(298/2025)</t>
+  </si>
+  <si>
+    <t>Maadadi ismail</t>
+  </si>
+  <si>
+    <t>Djennane toubal n682</t>
+  </si>
+  <si>
+    <t>2025177863</t>
+  </si>
+  <si>
+    <t>NB(009/2026)</t>
+  </si>
+  <si>
+    <t>Metidji billel</t>
+  </si>
+  <si>
+    <t>720 bt 2 n32</t>
+  </si>
+  <si>
+    <t>2025177560</t>
+  </si>
+  <si>
+    <t>Benalal ibrahim</t>
+  </si>
+  <si>
+    <t>720 bt 1 n14</t>
+  </si>
+  <si>
+    <t>NB(031/2026)</t>
+  </si>
+  <si>
+    <t>2025177861</t>
+  </si>
+  <si>
+    <t>NB(015/2026)</t>
+  </si>
+  <si>
+    <t>Mehnaoui aek</t>
+  </si>
+  <si>
+    <t>720 bt 9 n4</t>
+  </si>
+  <si>
+    <t>2025177862</t>
+  </si>
+  <si>
+    <t>Bensedgua kamel</t>
+  </si>
+  <si>
+    <t>720 bt 10 n24</t>
+  </si>
+  <si>
+    <t>NB(029/2026)</t>
+  </si>
+  <si>
+    <t>2025177551</t>
+  </si>
+  <si>
+    <t>NB(013/2026)</t>
+  </si>
+  <si>
+    <t>Boulariah med</t>
+  </si>
+  <si>
+    <t>720 bt 1 n22</t>
+  </si>
+  <si>
+    <t>2025177556</t>
+  </si>
+  <si>
+    <t>Belkhir nassira</t>
+  </si>
+  <si>
+    <t>720 bt 17 n20</t>
+  </si>
+  <si>
+    <t>NB(027/2026)</t>
+  </si>
+  <si>
+    <t>2025177557</t>
+  </si>
+  <si>
+    <t>Sabour abdelhafid</t>
+  </si>
+  <si>
+    <t>720 bt 18 n25</t>
+  </si>
+  <si>
+    <t>NB(033/2026)</t>
+  </si>
+  <si>
+    <t>Boubakri fahima</t>
+  </si>
+  <si>
+    <t>720 bt 16 n18</t>
+  </si>
+  <si>
+    <t>2025177866</t>
+  </si>
+  <si>
+    <t>Abdallah nacer</t>
+  </si>
+  <si>
+    <t>720 bt 1 n33</t>
+  </si>
+  <si>
+    <t>NB(008/2026)</t>
+  </si>
+  <si>
+    <t>2025177323</t>
   </si>
 </sst>
 </file>
@@ -735,15 +846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66685</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>19060</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -758,7 +869,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="657235" y="9934575"/>
+          <a:off x="609610" y="11172825"/>
           <a:ext cx="4448165" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1051,8 +1162,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1235,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -1164,7 +1275,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,17 +1709,15 @@
         <v>46029</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1738,7 @@
         <v>46029</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="17">
         <v>1</v>
@@ -1637,9 +1746,7 @@
       <c r="H21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,17 +1767,15 @@
         <v>46030</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>124</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,17 +1796,15 @@
         <v>46030</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23" s="17">
         <v>1</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1716,23 +1819,21 @@
         <v>18</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="15">
         <v>46033</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,23 +1848,21 @@
         <v>18</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" s="15">
         <v>46033</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,23 +1877,21 @@
         <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" s="15">
         <v>46033</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G26" s="17">
         <v>1</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1809,23 +1906,21 @@
         <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E27" s="15">
         <v>46033</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,22 +1935,22 @@
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E28" s="15">
         <v>46035</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J28" s="20"/>
     </row>
@@ -1871,22 +1966,22 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E29" s="15">
         <v>46035</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J29" s="20"/>
     </row>
@@ -1896,28 +1991,28 @@
         <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E30" s="15">
         <v>46035</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1933,22 +2028,22 @@
         <v>18</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E31" s="15">
         <v>46035</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1964,22 +2059,22 @@
         <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E32" s="15">
         <v>46035</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1995,22 +2090,22 @@
         <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E33" s="15">
         <v>46036</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -2020,28 +2115,28 @@
         <v>28</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E34" s="15">
         <v>46036</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -2057,22 +2152,22 @@
         <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E35" s="15">
         <v>46036</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -2088,22 +2183,22 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E36" s="15">
         <v>46036</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -2119,22 +2214,22 @@
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E37" s="15">
         <v>46036</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -2150,22 +2245,22 @@
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E38" s="15">
         <v>46036</v>
       </c>
       <c r="F38" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="G38" s="17">
-        <v>1</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -2181,22 +2276,22 @@
         <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E39" s="15">
         <v>46036</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>100</v>
+      <c r="H39" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2211,22 +2306,22 @@
         <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E40" s="15">
         <v>46036</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G40" s="17">
         <v>1</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>94</v>
+      <c r="H40" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2241,22 +2336,22 @@
         <v>18</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E41" s="15">
         <v>46040</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2271,22 +2366,22 @@
         <v>18</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E42" s="15">
         <v>46040</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2294,182 +2389,362 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="15">
+        <v>46041</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
+      <c r="B44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="15">
+        <v>46041</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="G44" s="17">
         <v>1</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
+      <c r="B45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="15">
+        <v>46042</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
+      <c r="B46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="15">
+        <v>46043</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="15">
+        <v>46043</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
+      <c r="B48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="15">
+        <v>46043</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
+      <c r="B49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
+      <c r="B50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+      <c r="B51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="G51" s="17">
         <v>1</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
+      <c r="B52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
+      <c r="B53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
+      <c r="B54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2484,7 +2759,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2499,7 +2774,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2514,7 +2789,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2529,7 +2804,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2544,7 +2819,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2559,7 +2834,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2574,7 +2849,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2589,7 +2864,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2604,7 +2879,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2680,9 +2955,9 @@
       <c r="H68" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I42">
-    <sortCondition ref="E7:E42"/>
-    <sortCondition ref="D7:D42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I54">
+    <sortCondition ref="E7:E54"/>
+    <sortCondition ref="D7:D54"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82B67A7-5C49-4078-867B-EB75125E25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7341F62E-7993-4886-8D17-B731B7642B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="227">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -598,6 +598,168 @@
   </si>
   <si>
     <t>2025177323</t>
+  </si>
+  <si>
+    <t>2025177865</t>
+  </si>
+  <si>
+    <t>NB(484/2025)</t>
+  </si>
+  <si>
+    <t>Zerrouki zerrouk</t>
+  </si>
+  <si>
+    <t>720 bt 16 n7</t>
+  </si>
+  <si>
+    <t>2025177867</t>
+  </si>
+  <si>
+    <t>Alouaoui a/rahmane</t>
+  </si>
+  <si>
+    <t>720 bt 12 n17</t>
+  </si>
+  <si>
+    <t>NB(028/2026)</t>
+  </si>
+  <si>
+    <t>Makhloufi aek</t>
+  </si>
+  <si>
+    <t>720 bt 1 n4</t>
+  </si>
+  <si>
+    <t>2025177869</t>
+  </si>
+  <si>
+    <t>NB(030/2026)</t>
+  </si>
+  <si>
+    <t>2025177864</t>
+  </si>
+  <si>
+    <t>2025177868</t>
+  </si>
+  <si>
+    <t>Benammar hichem</t>
+  </si>
+  <si>
+    <t>720 bt 16 n34</t>
+  </si>
+  <si>
+    <t>NB(433/2025)</t>
+  </si>
+  <si>
+    <t>B20440</t>
+  </si>
+  <si>
+    <t>2025177414</t>
+  </si>
+  <si>
+    <t>Elimination Forfait</t>
+  </si>
+  <si>
+    <t>B20444</t>
+  </si>
+  <si>
+    <t>2025177415</t>
+  </si>
+  <si>
+    <t>B20469</t>
+  </si>
+  <si>
+    <t>2025177413</t>
+  </si>
+  <si>
+    <t>2025177412</t>
+  </si>
+  <si>
+    <t>B20471</t>
+  </si>
+  <si>
+    <t>B20494</t>
+  </si>
+  <si>
+    <t>2025177411</t>
+  </si>
+  <si>
+    <t>B20524</t>
+  </si>
+  <si>
+    <t>2025177789</t>
+  </si>
+  <si>
+    <t>B20527</t>
+  </si>
+  <si>
+    <t>2025177786</t>
+  </si>
+  <si>
+    <t>B20542</t>
+  </si>
+  <si>
+    <t>2025177790</t>
+  </si>
+  <si>
+    <t>B20552</t>
+  </si>
+  <si>
+    <t>2025177420</t>
+  </si>
+  <si>
+    <t>B20553</t>
+  </si>
+  <si>
+    <t>2025177787</t>
+  </si>
+  <si>
+    <t>B20564</t>
+  </si>
+  <si>
+    <t>2025177788</t>
+  </si>
+  <si>
+    <t>B20578</t>
+  </si>
+  <si>
+    <t>2025177418</t>
+  </si>
+  <si>
+    <t>B20580</t>
+  </si>
+  <si>
+    <t>2025177417</t>
+  </si>
+  <si>
+    <t>B20586</t>
+  </si>
+  <si>
+    <t>2025177419</t>
+  </si>
+  <si>
+    <t>B20588</t>
+  </si>
+  <si>
+    <t>2025177416</t>
+  </si>
+  <si>
+    <t>B20675</t>
+  </si>
+  <si>
+    <t>2025177784</t>
+  </si>
+  <si>
+    <t>B20682</t>
+  </si>
+  <si>
+    <t>2025177783</t>
+  </si>
+  <si>
+    <t>B20683</t>
+  </si>
+  <si>
+    <t>2025177782</t>
   </si>
 </sst>
 </file>
@@ -846,15 +1008,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19060</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>381010</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -869,8 +1031,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="609610" y="11172825"/>
-          <a:ext cx="4448165" cy="1181100"/>
+          <a:off x="971560" y="14678025"/>
+          <a:ext cx="4067165" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1160,10 +1322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1375,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1235,7 +1397,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -1275,7 +1437,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1530,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <f t="shared" ref="A9:A68" si="0">+A8+1</f>
+        <f t="shared" ref="A9:A72" si="0">+A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -2666,22 +2828,22 @@
         <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E52" s="15">
         <v>46044</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,22 +2858,22 @@
         <v>18</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E53" s="15">
         <v>46044</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2726,22 +2888,22 @@
         <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E54" s="15">
         <v>46044</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,71 +2911,141 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="15">
+        <v>46044</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
+      <c r="B57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="15">
+        <v>46047</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
+      <c r="B58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="15">
+        <v>46047</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
+      <c r="B59" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
@@ -2824,11 +3056,21 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
+      <c r="B60" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
@@ -2839,11 +3081,21 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+      <c r="B61" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
@@ -2854,11 +3106,21 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="B62" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
@@ -2869,11 +3131,21 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
+      <c r="B63" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
@@ -2884,11 +3156,21 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="B64" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
@@ -2899,11 +3181,21 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
+      <c r="B65" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
@@ -2914,11 +3206,21 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="B66" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
@@ -2929,11 +3231,21 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
+      <c r="B67" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
@@ -2944,20 +3256,425 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
+      <c r="B68" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="4"/>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" s="17">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <f t="shared" ref="A73:A89" si="1">+A72+1</f>
+        <v>67</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I54">
-    <sortCondition ref="E7:E54"/>
-    <sortCondition ref="D7:D54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I76">
+    <sortCondition ref="E7:E76"/>
+    <sortCondition ref="D7:D76"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7341F62E-7993-4886-8D17-B731B7642B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A2266-384B-4891-BA09-0EF0B280CEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="249">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Anabi med</t>
   </si>
   <si>
-    <t>720 bt 1 n30</t>
-  </si>
-  <si>
     <t>2025177280</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Ziane halima</t>
   </si>
   <si>
-    <t>720 bt 16 n21</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>Bouguessa youcef</t>
   </si>
   <si>
-    <t>Ain omrane</t>
-  </si>
-  <si>
     <t>NB(659/2025)</t>
   </si>
   <si>
@@ -327,42 +318,27 @@
     <t>Reguieg chakib</t>
   </si>
   <si>
-    <t>720 bt 1 n29</t>
-  </si>
-  <si>
     <t>2025177322</t>
   </si>
   <si>
     <t>Bedoui ines</t>
   </si>
   <si>
-    <t>720 bt 8 n22</t>
-  </si>
-  <si>
     <t>Aouiche rabah</t>
   </si>
   <si>
-    <t>720 bt 17 n8</t>
-  </si>
-  <si>
     <t>2025177275</t>
   </si>
   <si>
     <t>Kouidri benyouef</t>
   </si>
   <si>
-    <t>720 bt 1 n11</t>
-  </si>
-  <si>
     <t>2025177325</t>
   </si>
   <si>
     <t>Boubakeur abdellah</t>
   </si>
   <si>
-    <t>720 bt 16 n17</t>
-  </si>
-  <si>
     <t>NB(520/2025)</t>
   </si>
   <si>
@@ -396,9 +372,6 @@
     <t>Lassar tayeb</t>
   </si>
   <si>
-    <t>1ere tranche n3</t>
-  </si>
-  <si>
     <t>2025177321</t>
   </si>
   <si>
@@ -408,9 +381,6 @@
     <t>Kridi aek</t>
   </si>
   <si>
-    <t>720 bt 8 n35</t>
-  </si>
-  <si>
     <t>2025177273</t>
   </si>
   <si>
@@ -420,9 +390,6 @@
     <t>Toumi f/zohra</t>
   </si>
   <si>
-    <t>720 bt 13 n32</t>
-  </si>
-  <si>
     <t>NB(387/2025)</t>
   </si>
   <si>
@@ -435,9 +402,6 @@
     <t>Sahlaoui lyes</t>
   </si>
   <si>
-    <t>720 bt 10 n31</t>
-  </si>
-  <si>
     <t>NB(556/2025)</t>
   </si>
   <si>
@@ -447,18 +411,12 @@
     <t>Belkahla rachid</t>
   </si>
   <si>
-    <t>Djennane toubal bt A n15</t>
-  </si>
-  <si>
     <t>NB(755/2025)</t>
   </si>
   <si>
     <t>Fatmi aek</t>
   </si>
   <si>
-    <t>720 bt 5 n3</t>
-  </si>
-  <si>
     <t>2025177272</t>
   </si>
   <si>
@@ -760,13 +718,121 @@
   </si>
   <si>
     <t>2025177782</t>
+  </si>
+  <si>
+    <t>2025177382</t>
+  </si>
+  <si>
+    <t>Safar bati mustapha</t>
+  </si>
+  <si>
+    <t>720 bt 2 n2</t>
+  </si>
+  <si>
+    <t>NB(043/2026)</t>
+  </si>
+  <si>
+    <t>2025177383</t>
+  </si>
+  <si>
+    <t>Rabhallah aissa</t>
+  </si>
+  <si>
+    <t>720 bt 9 n18</t>
+  </si>
+  <si>
+    <t>NB(567/2025)</t>
+  </si>
+  <si>
+    <t>2025177385</t>
+  </si>
+  <si>
+    <t>Anabi farid</t>
+  </si>
+  <si>
+    <t>720 bt 2 n9</t>
+  </si>
+  <si>
+    <t>NB(034/2026)</t>
+  </si>
+  <si>
+    <t>2025177381</t>
+  </si>
+  <si>
+    <t>Benrekia med el fatah</t>
+  </si>
+  <si>
+    <t>720 bt 8 n1</t>
+  </si>
+  <si>
+    <t>NB(041/2026)</t>
+  </si>
+  <si>
+    <t>2025177390</t>
+  </si>
+  <si>
+    <t>Serrat bakir</t>
+  </si>
+  <si>
+    <t>720 bt 10 n28</t>
+  </si>
+  <si>
+    <t>NB(046/2026)</t>
+  </si>
+  <si>
+    <t>2025177386</t>
+  </si>
+  <si>
+    <t>Allali med</t>
+  </si>
+  <si>
+    <t>720 bt 8 n30</t>
+  </si>
+  <si>
+    <t>NB(697/2025)</t>
+  </si>
+  <si>
+    <t>2025177388</t>
+  </si>
+  <si>
+    <t>Chiker mahfoud</t>
+  </si>
+  <si>
+    <t>720 bt 15 n20</t>
+  </si>
+  <si>
+    <t>NB(017/2026)</t>
+  </si>
+  <si>
+    <t>2025177781</t>
+  </si>
+  <si>
+    <t>Zaoui mourad</t>
+  </si>
+  <si>
+    <t>720 bt 02 n33</t>
+  </si>
+  <si>
+    <t>NB(044/2026)</t>
+  </si>
+  <si>
+    <t>2025177785</t>
+  </si>
+  <si>
+    <t>Zouaoui said</t>
+  </si>
+  <si>
+    <t>720 bt 16 n32</t>
+  </si>
+  <si>
+    <t>NB(035/2026)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +904,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -906,7 +978,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -984,6 +1056,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,15 +1083,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381010</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>38110</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1031,8 +1106,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="971560" y="14678025"/>
-          <a:ext cx="4067165" cy="733425"/>
+          <a:off x="628660" y="16563975"/>
+          <a:ext cx="4476740" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1324,8 +1399,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1472,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -1437,7 +1512,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1929,13 +2004,13 @@
         <v>46030</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2097,23 +2172,21 @@
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E28" s="15">
         <v>46035</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>125</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,23 +2201,21 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E29" s="15">
         <v>46035</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,29 +2224,27 @@
         <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="15">
         <v>46035</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I30" s="20"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,9 +2273,7 @@
       <c r="H31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="I31" s="20"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,23 +2288,21 @@
         <v>18</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="15">
         <v>46035</v>
       </c>
       <c r="F32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="17">
-        <v>1</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="I32" s="20"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,23 +2317,21 @@
         <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E33" s="15">
         <v>46036</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,29 +2340,27 @@
         <v>28</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E34" s="15">
         <v>46036</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>102</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I34" s="20"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,23 +2375,21 @@
         <v>18</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E35" s="15">
         <v>46036</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I35" s="20"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,23 +2404,21 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E36" s="15">
         <v>46036</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I36" s="20"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,23 +2433,21 @@
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E37" s="15">
         <v>46036</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,23 +2462,21 @@
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E38" s="15">
         <v>46036</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G38" s="17">
         <v>1</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>87</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I38" s="20"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2438,23 +2491,21 @@
         <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E39" s="15">
         <v>46036</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
@@ -2468,23 +2519,21 @@
         <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E40" s="15">
         <v>46036</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G40" s="17">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
@@ -2498,23 +2547,21 @@
         <v>18</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E41" s="15">
         <v>46040</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
@@ -2528,23 +2575,21 @@
         <v>18</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E42" s="15">
         <v>46040</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
@@ -2558,22 +2603,22 @@
         <v>18</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E43" s="15">
         <v>46041</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2588,22 +2633,22 @@
         <v>18</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E44" s="15">
         <v>46041</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G44" s="17">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2618,22 +2663,22 @@
         <v>18</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E45" s="15">
         <v>46042</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2648,22 +2693,22 @@
         <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E46" s="15">
         <v>46043</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2678,22 +2723,22 @@
         <v>18</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E47" s="15">
         <v>46043</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2708,22 +2753,22 @@
         <v>18</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E48" s="15">
         <v>46043</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,22 +2783,22 @@
         <v>18</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E49" s="15">
         <v>46044</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2768,22 +2813,22 @@
         <v>18</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E50" s="15">
         <v>46044</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2798,22 +2843,22 @@
         <v>18</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E51" s="15">
         <v>46044</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G51" s="17">
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,22 +2873,22 @@
         <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E52" s="15">
         <v>46044</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2858,22 +2903,22 @@
         <v>18</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E53" s="15">
         <v>46044</v>
       </c>
       <c r="F53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2888,22 +2933,22 @@
         <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E54" s="15">
         <v>46044</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2918,22 +2963,22 @@
         <v>18</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E55" s="15">
         <v>46044</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2948,22 +2993,22 @@
         <v>18</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E56" s="15">
         <v>46044</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,22 +3023,22 @@
         <v>18</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E57" s="15">
         <v>46047</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3008,22 +3053,22 @@
         <v>18</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E58" s="15">
         <v>46047</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,24 +3077,29 @@
         <v>53</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E59" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>192</v>
+        <v>46048</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>216</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
@@ -3057,24 +3107,29 @@
         <v>54</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E60" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>192</v>
+        <v>46048</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
@@ -3082,24 +3137,29 @@
         <v>55</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E61" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>192</v>
+        <v>46048</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
@@ -3107,24 +3167,29 @@
         <v>56</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="E62" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>192</v>
+        <v>46048</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>244</v>
       </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -3132,24 +3197,29 @@
         <v>57</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="E63" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>192</v>
+        <v>46048</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>248</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -3157,380 +3227,440 @@
         <v>58</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E64" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>192</v>
+        <v>46049</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E65" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>192</v>
+        <v>46049</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E66" s="15">
-        <v>46050</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>192</v>
+        <v>46049</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E67" s="15">
         <v>46050</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>192</v>
+      <c r="F67" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E68" s="15">
         <v>46050</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="E69" s="15">
         <v>46050</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="E70" s="15">
         <v>46050</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="E71" s="15">
         <v>46050</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G71" s="17">
         <v>1</v>
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E72" s="15">
         <v>46050</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G72" s="17">
         <v>1</v>
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <f t="shared" ref="A73:A89" si="1">+A72+1</f>
         <v>67</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E73" s="15">
         <v>46050</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G73" s="17">
         <v>1</v>
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E74" s="15">
         <v>46050</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E75" s="15">
         <v>46050</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E76" s="15">
         <v>46050</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
+      <c r="B77" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G77" s="17">
         <v>1</v>
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
+      <c r="B78" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G78" s="17">
         <v>1</v>
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
+      <c r="B79" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16"/>
+      <c r="B80" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G80" s="17">
         <v>1</v>
       </c>
@@ -3541,11 +3671,21 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
+      <c r="B81" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
@@ -3556,11 +3696,21 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
+      <c r="B82" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G82" s="17">
         <v>1</v>
       </c>
@@ -3571,11 +3721,21 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
+      <c r="B83" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G83" s="17">
         <v>1</v>
       </c>
@@ -3586,11 +3746,21 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
+      <c r="B84" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G84" s="17">
         <v>1</v>
       </c>
@@ -3601,11 +3771,21 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
+      <c r="B85" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" s="15">
+        <v>46050</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="G85" s="17">
         <v>1</v>
       </c>
@@ -3672,9 +3852,9 @@
       <c r="H89" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I76">
-    <sortCondition ref="E7:E76"/>
-    <sortCondition ref="D7:D76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I85">
+    <sortCondition ref="E7:E85"/>
+    <sortCondition ref="D7:D85"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A2266-384B-4891-BA09-0EF0B280CEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF22ED-6A6B-45F3-93BC-D34414E4192C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Janvier 2026" sheetId="1" r:id="rId1"/>
+    <sheet name="Janvier 2026 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Février 2026" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Janvier 2026'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Février 2026'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Janvier 2026 (2)'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="263">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -363,9 +365,6 @@
     <t>B2</t>
   </si>
   <si>
-    <t>Cité hantabli</t>
-  </si>
-  <si>
     <t>2025177271</t>
   </si>
   <si>
@@ -435,9 +434,6 @@
     <t>Rahmani ali</t>
   </si>
   <si>
-    <t>720 bt 2 n7</t>
-  </si>
-  <si>
     <t>NB(003/2026)</t>
   </si>
   <si>
@@ -450,9 +446,6 @@
     <t>Maadadi ismail</t>
   </si>
   <si>
-    <t>Djennane toubal n682</t>
-  </si>
-  <si>
     <t>2025177863</t>
   </si>
   <si>
@@ -462,18 +455,12 @@
     <t>Metidji billel</t>
   </si>
   <si>
-    <t>720 bt 2 n32</t>
-  </si>
-  <si>
     <t>2025177560</t>
   </si>
   <si>
     <t>Benalal ibrahim</t>
   </si>
   <si>
-    <t>720 bt 1 n14</t>
-  </si>
-  <si>
     <t>NB(031/2026)</t>
   </si>
   <si>
@@ -486,18 +473,12 @@
     <t>Mehnaoui aek</t>
   </si>
   <si>
-    <t>720 bt 9 n4</t>
-  </si>
-  <si>
     <t>2025177862</t>
   </si>
   <si>
     <t>Bensedgua kamel</t>
   </si>
   <si>
-    <t>720 bt 10 n24</t>
-  </si>
-  <si>
     <t>NB(029/2026)</t>
   </si>
   <si>
@@ -510,18 +491,12 @@
     <t>Boulariah med</t>
   </si>
   <si>
-    <t>720 bt 1 n22</t>
-  </si>
-  <si>
     <t>2025177556</t>
   </si>
   <si>
     <t>Belkhir nassira</t>
   </si>
   <si>
-    <t>720 bt 17 n20</t>
-  </si>
-  <si>
     <t>NB(027/2026)</t>
   </si>
   <si>
@@ -531,27 +506,18 @@
     <t>Sabour abdelhafid</t>
   </si>
   <si>
-    <t>720 bt 18 n25</t>
-  </si>
-  <si>
     <t>NB(033/2026)</t>
   </si>
   <si>
     <t>Boubakri fahima</t>
   </si>
   <si>
-    <t>720 bt 16 n18</t>
-  </si>
-  <si>
     <t>2025177866</t>
   </si>
   <si>
     <t>Abdallah nacer</t>
   </si>
   <si>
-    <t>720 bt 1 n33</t>
-  </si>
-  <si>
     <t>NB(008/2026)</t>
   </si>
   <si>
@@ -567,27 +533,18 @@
     <t>Zerrouki zerrouk</t>
   </si>
   <si>
-    <t>720 bt 16 n7</t>
-  </si>
-  <si>
     <t>2025177867</t>
   </si>
   <si>
     <t>Alouaoui a/rahmane</t>
   </si>
   <si>
-    <t>720 bt 12 n17</t>
-  </si>
-  <si>
     <t>NB(028/2026)</t>
   </si>
   <si>
     <t>Makhloufi aek</t>
   </si>
   <si>
-    <t>720 bt 1 n4</t>
-  </si>
-  <si>
     <t>2025177869</t>
   </si>
   <si>
@@ -603,9 +560,6 @@
     <t>Benammar hichem</t>
   </si>
   <si>
-    <t>720 bt 16 n34</t>
-  </si>
-  <si>
     <t>NB(433/2025)</t>
   </si>
   <si>
@@ -726,9 +680,6 @@
     <t>Safar bati mustapha</t>
   </si>
   <si>
-    <t>720 bt 2 n2</t>
-  </si>
-  <si>
     <t>NB(043/2026)</t>
   </si>
   <si>
@@ -738,9 +689,6 @@
     <t>Rabhallah aissa</t>
   </si>
   <si>
-    <t>720 bt 9 n18</t>
-  </si>
-  <si>
     <t>NB(567/2025)</t>
   </si>
   <si>
@@ -750,9 +698,6 @@
     <t>Anabi farid</t>
   </si>
   <si>
-    <t>720 bt 2 n9</t>
-  </si>
-  <si>
     <t>NB(034/2026)</t>
   </si>
   <si>
@@ -762,9 +707,6 @@
     <t>Benrekia med el fatah</t>
   </si>
   <si>
-    <t>720 bt 8 n1</t>
-  </si>
-  <si>
     <t>NB(041/2026)</t>
   </si>
   <si>
@@ -774,9 +716,6 @@
     <t>Serrat bakir</t>
   </si>
   <si>
-    <t>720 bt 10 n28</t>
-  </si>
-  <si>
     <t>NB(046/2026)</t>
   </si>
   <si>
@@ -786,9 +725,6 @@
     <t>Allali med</t>
   </si>
   <si>
-    <t>720 bt 8 n30</t>
-  </si>
-  <si>
     <t>NB(697/2025)</t>
   </si>
   <si>
@@ -798,9 +734,6 @@
     <t>Chiker mahfoud</t>
   </si>
   <si>
-    <t>720 bt 15 n20</t>
-  </si>
-  <si>
     <t>NB(017/2026)</t>
   </si>
   <si>
@@ -810,9 +743,6 @@
     <t>Zaoui mourad</t>
   </si>
   <si>
-    <t>720 bt 02 n33</t>
-  </si>
-  <si>
     <t>NB(044/2026)</t>
   </si>
   <si>
@@ -822,10 +752,145 @@
     <t>Zouaoui said</t>
   </si>
   <si>
-    <t>720 bt 16 n32</t>
-  </si>
-  <si>
     <t>NB(035/2026)</t>
+  </si>
+  <si>
+    <t>B20293</t>
+  </si>
+  <si>
+    <t>2025177694</t>
+  </si>
+  <si>
+    <t>B20300</t>
+  </si>
+  <si>
+    <t>2025177699</t>
+  </si>
+  <si>
+    <t>B20301</t>
+  </si>
+  <si>
+    <t>2025177698</t>
+  </si>
+  <si>
+    <t>B20304</t>
+  </si>
+  <si>
+    <t>2025177695</t>
+  </si>
+  <si>
+    <t>B20308</t>
+  </si>
+  <si>
+    <t>2025177700</t>
+  </si>
+  <si>
+    <t>B20326</t>
+  </si>
+  <si>
+    <t>2025177692</t>
+  </si>
+  <si>
+    <t>B20330</t>
+  </si>
+  <si>
+    <t>2025177693</t>
+  </si>
+  <si>
+    <t>B20352</t>
+  </si>
+  <si>
+    <t>2025177691</t>
+  </si>
+  <si>
+    <t>B20349</t>
+  </si>
+  <si>
+    <t>2025177850</t>
+  </si>
+  <si>
+    <t>B20353</t>
+  </si>
+  <si>
+    <t>2025177849</t>
+  </si>
+  <si>
+    <t>B20372</t>
+  </si>
+  <si>
+    <t>2025177697</t>
+  </si>
+  <si>
+    <t>B20374</t>
+  </si>
+  <si>
+    <t>2025177696</t>
+  </si>
+  <si>
+    <t>B20380</t>
+  </si>
+  <si>
+    <t>2025177848</t>
+  </si>
+  <si>
+    <t>B20384</t>
+  </si>
+  <si>
+    <t>2025177847</t>
+  </si>
+  <si>
+    <t>B20386</t>
+  </si>
+  <si>
+    <t>2025177846</t>
+  </si>
+  <si>
+    <t>B20395</t>
+  </si>
+  <si>
+    <t>B20398</t>
+  </si>
+  <si>
+    <t>2025177844</t>
+  </si>
+  <si>
+    <t>2025177845</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <r>
+      <t>Mois de Février</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2026</t>
+    </r>
+  </si>
+  <si>
+    <t>NB(050/2026)</t>
+  </si>
+  <si>
+    <t>Bureau etp larbi cherif</t>
+  </si>
+  <si>
+    <t>80 lsp bt02 n)30</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1103,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,9 +1123,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1084,14 +1149,69 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38110</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06201C5B-AB11-47A5-BEF8-D5C814B35B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="628660" y="20431125"/>
+          <a:ext cx="4476740" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38110</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1106,7 +1226,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="628660" y="16563975"/>
+          <a:off x="628660" y="20431125"/>
           <a:ext cx="4476740" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1395,12 +1515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:K89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B43B6-0248-48FC-B214-98DE0DBC6EF4}">
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,11 +1534,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -1432,11 +1551,11 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -1444,21 +1563,21 @@
       <c r="F2" s="5"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1466,53 +1585,53 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="6">
         <f>SUMIF(F7:F364,"Ve*",G7:G364)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,13 +2123,13 @@
         <v>46030</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2172,19 +2291,19 @@
         <v>18</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="15">
         <v>46035</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -2201,19 +2320,19 @@
         <v>18</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="15">
         <v>46035</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="G29" s="17">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -2317,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="15">
         <v>46036</v>
@@ -2329,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2404,19 +2523,19 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="15">
         <v>46036</v>
       </c>
       <c r="F36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="4"/>
@@ -2462,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E38" s="15">
         <v>46036</v>
@@ -2547,19 +2666,19 @@
         <v>18</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="15">
         <v>46040</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="20"/>
     </row>
@@ -2575,19 +2694,19 @@
         <v>18</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="15">
         <v>46040</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I42" s="20"/>
     </row>
@@ -2603,23 +2722,21 @@
         <v>18</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="15">
         <v>46041</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>118</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
@@ -2633,23 +2750,21 @@
         <v>18</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="15">
         <v>46041</v>
       </c>
       <c r="F44" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
@@ -2663,23 +2778,21 @@
         <v>18</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" s="15">
         <v>46042</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -2693,23 +2806,21 @@
         <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E46" s="15">
         <v>46043</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
@@ -2723,23 +2834,21 @@
         <v>18</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E47" s="15">
         <v>46043</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>146</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
@@ -2753,23 +2862,21 @@
         <v>18</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E48" s="15">
         <v>46043</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
@@ -2783,23 +2890,21 @@
         <v>18</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E49" s="15">
         <v>46044</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>130</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
@@ -2813,23 +2918,21 @@
         <v>18</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E50" s="15">
         <v>46044</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>135</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
@@ -2843,23 +2946,21 @@
         <v>18</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E51" s="15">
         <v>46044</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G51" s="17">
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
@@ -2873,23 +2974,21 @@
         <v>18</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E52" s="15">
         <v>46044</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
@@ -2903,23 +3002,21 @@
         <v>18</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E53" s="15">
         <v>46044</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>153</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
@@ -2933,23 +3030,21 @@
         <v>18</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E54" s="15">
         <v>46044</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
@@ -2963,23 +3058,21 @@
         <v>18</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E55" s="15">
         <v>46044</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>156</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
@@ -2993,23 +3086,21 @@
         <v>18</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E56" s="15">
         <v>46044</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
@@ -3023,23 +3114,21 @@
         <v>18</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E57" s="15">
         <v>46047</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>174</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
@@ -3053,23 +3142,21 @@
         <v>18</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E58" s="15">
         <v>46047</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>168</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
@@ -3083,23 +3170,21 @@
         <v>18</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E59" s="15">
         <v>46048</v>
       </c>
-      <c r="F59" s="27" t="s">
-        <v>216</v>
+      <c r="F59" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>215</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
@@ -3113,23 +3198,21 @@
         <v>18</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E60" s="15">
         <v>46048</v>
       </c>
-      <c r="F60" s="27" t="s">
-        <v>220</v>
+      <c r="F60" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>219</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
@@ -3143,23 +3226,21 @@
         <v>18</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E61" s="15">
         <v>46048</v>
       </c>
-      <c r="F61" s="27" t="s">
-        <v>224</v>
+      <c r="F61" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>223</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
@@ -3173,23 +3254,21 @@
         <v>18</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E62" s="15">
         <v>46048</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>244</v>
+      <c r="F62" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>243</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -3203,23 +3282,21 @@
         <v>18</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E63" s="15">
         <v>46048</v>
       </c>
-      <c r="F63" s="27" t="s">
-        <v>248</v>
+      <c r="F63" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>247</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -3233,23 +3310,21 @@
         <v>18</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E64" s="15">
         <v>46049</v>
       </c>
-      <c r="F64" s="27" t="s">
-        <v>228</v>
+      <c r="F64" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
@@ -3263,23 +3338,21 @@
         <v>18</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E65" s="15">
         <v>46049</v>
       </c>
-      <c r="F65" s="27" t="s">
-        <v>236</v>
+      <c r="F65" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
@@ -3293,23 +3366,21 @@
         <v>18</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E66" s="15">
         <v>46049</v>
       </c>
-      <c r="F66" s="27" t="s">
-        <v>232</v>
+      <c r="F66" s="21" t="s">
+        <v>211</v>
       </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>231</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
@@ -3323,23 +3394,21 @@
         <v>18</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E67" s="15">
         <v>46050</v>
       </c>
-      <c r="F67" s="27" t="s">
-        <v>240</v>
+      <c r="F67" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>239</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I67" s="20"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
@@ -3347,19 +3416,19 @@
         <v>62</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E68" s="15">
         <v>46050</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
@@ -3372,19 +3441,19 @@
         <v>63</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E69" s="15">
         <v>46050</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
@@ -3397,19 +3466,19 @@
         <v>64</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E70" s="15">
         <v>46050</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G70" s="17">
         <v>1</v>
@@ -3422,19 +3491,19 @@
         <v>65</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E71" s="15">
         <v>46050</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G71" s="17">
         <v>1</v>
@@ -3447,19 +3516,19 @@
         <v>66</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E72" s="15">
         <v>46050</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G72" s="17">
         <v>1</v>
@@ -3468,23 +3537,23 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <f t="shared" ref="A73:A89" si="1">+A72+1</f>
+        <f t="shared" ref="A73:A117" si="1">+A72+1</f>
         <v>67</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E73" s="15">
         <v>46050</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G73" s="17">
         <v>1</v>
@@ -3497,19 +3566,19 @@
         <v>68</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E74" s="15">
         <v>46050</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
@@ -3522,19 +3591,19 @@
         <v>69</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E75" s="15">
         <v>46050</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G75" s="17">
         <v>1</v>
@@ -3547,19 +3616,19 @@
         <v>70</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E76" s="15">
         <v>46050</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G76" s="17">
         <v>1</v>
@@ -3572,19 +3641,19 @@
         <v>71</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E77" s="15">
         <v>46050</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G77" s="17">
         <v>1</v>
@@ -3597,19 +3666,19 @@
         <v>72</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E78" s="15">
         <v>46050</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G78" s="17">
         <v>1</v>
@@ -3622,19 +3691,19 @@
         <v>73</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E79" s="15">
         <v>46050</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G79" s="17">
         <v>1</v>
@@ -3647,19 +3716,19 @@
         <v>74</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E80" s="15">
         <v>46050</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G80" s="17">
         <v>1</v>
@@ -3672,19 +3741,19 @@
         <v>75</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E81" s="15">
         <v>46050</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G81" s="17">
         <v>1</v>
@@ -3697,19 +3766,19 @@
         <v>76</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E82" s="15">
         <v>46050</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G82" s="17">
         <v>1</v>
@@ -3722,19 +3791,19 @@
         <v>77</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E83" s="15">
         <v>46050</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G83" s="17">
         <v>1</v>
@@ -3747,19 +3816,19 @@
         <v>78</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E84" s="15">
         <v>46050</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G84" s="17">
         <v>1</v>
@@ -3772,20 +3841,2140 @@
         <v>79</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E85" s="15">
         <v>46050</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>178</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G85" s="17">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G86" s="17">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E87" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G87" s="17">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="17">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G89" s="17">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E90" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G90" s="17">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G91" s="17">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E92" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" s="17">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="17">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E95" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G95" s="17">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G96" s="17">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E97" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G97" s="17">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G98" s="17">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" s="17">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E100" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G100" s="17">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" s="17">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="15">
+        <v>46051</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G102" s="17">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="17">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="17">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="17">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="17">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="17">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="17">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="17">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="17">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="17">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="17">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="17">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.45" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:K117"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="6">
+        <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="6">
+        <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="6">
+        <f>SUMIF(F7:F364,"Ve*",G7:G364)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="8">
+        <f>SUM(K2:K4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2025177384</v>
+      </c>
+      <c r="E7" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <f>+A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <f t="shared" ref="A9:A72" si="0">+A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <f>+A39+1</f>
+        <v>34</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="17">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="20"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="17">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <f t="shared" ref="A73:A117" si="1">+A72+1</f>
+        <v>67</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="17">
         <v>1</v>
       </c>
@@ -3851,10 +6040,430 @@
       </c>
       <c r="H89" s="4"/>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="17">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="17">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="17">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="17">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="17">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="17">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="17">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="17">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="17">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="17">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="17">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="17">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="17">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="17">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="17">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="17">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="17">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B115" s="15"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="17">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="17">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="17">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I85">
-    <sortCondition ref="E7:E85"/>
-    <sortCondition ref="D7:D85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I102">
+    <sortCondition ref="E7:E102"/>
+    <sortCondition ref="D7:D102"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF22ED-6A6B-45F3-93BC-D34414E4192C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EC688-1894-42B5-A4C5-8E3E1B959718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="288">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -797,9 +797,6 @@
     <t>2025177693</t>
   </si>
   <si>
-    <t>B20352</t>
-  </si>
-  <si>
     <t>2025177691</t>
   </si>
   <si>
@@ -891,6 +888,84 @@
   </si>
   <si>
     <t>80 lsp bt02 n)30</t>
+  </si>
+  <si>
+    <t>B20332</t>
+  </si>
+  <si>
+    <t>Berrached kamel</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt17 n6</t>
+  </si>
+  <si>
+    <t>B20125</t>
+  </si>
+  <si>
+    <t>B20128</t>
+  </si>
+  <si>
+    <t>B20137</t>
+  </si>
+  <si>
+    <t>B20138</t>
+  </si>
+  <si>
+    <t>B20139</t>
+  </si>
+  <si>
+    <t>B20148</t>
+  </si>
+  <si>
+    <t>B20149</t>
+  </si>
+  <si>
+    <t>B20210</t>
+  </si>
+  <si>
+    <t>B20211</t>
+  </si>
+  <si>
+    <t>B20213</t>
+  </si>
+  <si>
+    <t>B20221</t>
+  </si>
+  <si>
+    <t>B20230</t>
+  </si>
+  <si>
+    <t>B20238</t>
+  </si>
+  <si>
+    <t>B20240</t>
+  </si>
+  <si>
+    <t>B20259</t>
+  </si>
+  <si>
+    <t>B20261</t>
+  </si>
+  <si>
+    <t>B20275</t>
+  </si>
+  <si>
+    <t>B20278</t>
+  </si>
+  <si>
+    <t>B20280</t>
+  </si>
+  <si>
+    <t>B20289</t>
+  </si>
+  <si>
+    <t>B21992</t>
+  </si>
+  <si>
+    <t>20/27</t>
+  </si>
+  <si>
+    <t>2024004545</t>
   </si>
 </sst>
 </file>
@@ -1148,15 +1223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38110</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1171,8 +1246,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="628660" y="20431125"/>
-          <a:ext cx="4476740" cy="238125"/>
+          <a:off x="590550" y="19659600"/>
+          <a:ext cx="4448175" cy="4562475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1516,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B43B6-0248-48FC-B214-98DE0DBC6EF4}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="F126" sqref="A1:F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1748,7 @@
       <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>2025177951</v>
       </c>
       <c r="E7" s="15">
@@ -1703,7 +1778,7 @@
       <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>2025177952</v>
       </c>
       <c r="E8" s="15">
@@ -1733,7 +1808,7 @@
       <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>2025177957</v>
       </c>
       <c r="E9" s="15">
@@ -1763,7 +1838,7 @@
       <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>2025177958</v>
       </c>
       <c r="E10" s="15">
@@ -1793,7 +1868,7 @@
       <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>2025177959</v>
       </c>
       <c r="E11" s="15">
@@ -1823,7 +1898,7 @@
       <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>2025177960</v>
       </c>
       <c r="E12" s="15">
@@ -1853,7 +1928,7 @@
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>2025177970</v>
       </c>
       <c r="E13" s="15">
@@ -1883,7 +1958,7 @@
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>2025177953</v>
       </c>
       <c r="E14" s="15">
@@ -1913,7 +1988,7 @@
       <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>2025177954</v>
       </c>
       <c r="E15" s="15">
@@ -1942,7 +2017,7 @@
       <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>2025177955</v>
       </c>
       <c r="E16" s="15">
@@ -1971,7 +2046,7 @@
       <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>2025177967</v>
       </c>
       <c r="E17" s="15">
@@ -2000,7 +2075,7 @@
       <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <v>2025177968</v>
       </c>
       <c r="E18" s="15">
@@ -2029,7 +2104,7 @@
       <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="14">
         <v>2025177969</v>
       </c>
       <c r="E19" s="15">
@@ -2058,7 +2133,7 @@
       <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="14">
         <v>2025177965</v>
       </c>
       <c r="E20" s="15">
@@ -2087,7 +2162,7 @@
       <c r="C21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="14">
         <v>2025177966</v>
       </c>
       <c r="E21" s="15">
@@ -2116,7 +2191,7 @@
       <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <v>2025177963</v>
       </c>
       <c r="E22" s="15">
@@ -2145,7 +2220,7 @@
       <c r="C23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="14">
         <v>2025177964</v>
       </c>
       <c r="E23" s="15">
@@ -3537,7 +3612,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <f t="shared" ref="A73:A117" si="1">+A72+1</f>
+        <f t="shared" ref="A73:A136" si="1">+A72+1</f>
         <v>67</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -3866,13 +3941,13 @@
         <v>80</v>
       </c>
       <c r="B86" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="E86" s="15">
         <v>46051</v>
@@ -3991,13 +4066,13 @@
         <v>85</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>247</v>
       </c>
       <c r="E91" s="15">
         <v>46051</v>
@@ -4016,13 +4091,13 @@
         <v>86</v>
       </c>
       <c r="B92" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="E92" s="15">
         <v>46051</v>
@@ -4116,13 +4191,13 @@
         <v>90</v>
       </c>
       <c r="B96" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="E96" s="15">
         <v>46051</v>
@@ -4141,13 +4216,13 @@
         <v>91</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E97" s="15">
         <v>46051</v>
@@ -4166,13 +4241,13 @@
         <v>92</v>
       </c>
       <c r="B98" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="E98" s="15">
         <v>46051</v>
@@ -4191,13 +4266,13 @@
         <v>93</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="E99" s="15">
         <v>46051</v>
@@ -4216,13 +4291,13 @@
         <v>94</v>
       </c>
       <c r="B100" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="E100" s="15">
         <v>46051</v>
@@ -4241,13 +4316,13 @@
         <v>95</v>
       </c>
       <c r="B101" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="E101" s="15">
         <v>46051</v>
@@ -4266,13 +4341,13 @@
         <v>96</v>
       </c>
       <c r="B102" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="E102" s="15">
         <v>46051</v>
@@ -4509,6 +4584,1007 @@
         <v>1</v>
       </c>
       <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B119" s="15"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="16"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="16"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B121" s="15"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="16"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B122" s="15"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="16"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="16"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="16"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B126" s="15"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="16"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B127" s="15"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="16"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="12">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B128" s="15"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="16"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B129" s="15"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="16"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="16"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="16"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="16"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B133" s="15"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="16"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="16"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B135" s="15"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="16"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="16"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
+        <f t="shared" ref="A137:A200" si="2">+A136+1</f>
+        <v>131</v>
+      </c>
+      <c r="B137" s="15"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="16"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B138" s="15"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B139" s="15"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="16"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B141" s="15"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B142" s="15"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="16"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B143" s="15"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="16"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B144" s="15"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="16"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B145" s="15"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="16"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B146" s="15"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="16"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B147" s="15"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="16"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B148" s="15"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="16"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B149" s="15"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="16"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="16"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B151" s="15"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="16"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B152" s="15"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="16"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B153" s="15"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="16"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B154" s="15"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="16"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="16"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B156" s="15"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="16"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B157" s="15"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="16"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B158" s="15"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="16"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B159" s="15"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="16"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B160" s="15"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="16"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B161" s="15"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="16"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B162" s="15"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="16"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B163" s="15"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="16"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B164" s="15"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="16"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B165" s="15"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="16"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B166" s="15"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="16"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B167" s="15"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="16"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B168" s="15"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="16"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B169" s="15"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="16"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B170" s="15"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="16"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B171" s="15"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="16"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B172" s="15"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="16"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B173" s="15"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="16"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B174" s="15"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="16"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B175" s="15"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="16"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B176" s="15"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="16"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B177" s="15"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="16"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B178" s="15"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="16"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B179" s="15"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="16"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B180" s="15"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="16"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B181" s="15"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="16"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B182" s="15"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="16"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B183" s="15"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="16"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B184" s="15"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="16"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B185" s="15"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="16"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B186" s="15"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="16"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B187" s="15"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="16"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B188" s="15"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="16"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B189" s="15"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="16"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B190" s="15"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="16"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B191" s="15"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="16"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B192" s="15"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="16"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B193" s="15"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="16"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B194" s="15"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="16"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B195" s="15"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="16"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B196" s="15"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="16"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B197" s="15"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="16"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B198" s="15"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="16"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B199" s="15"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="16"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B200" s="15"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="16"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <f t="shared" ref="A201:A208" si="3">+A200+1</f>
+        <v>195</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="16"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B202" s="15"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="16"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="16"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B204" s="15"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="16"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B205" s="15"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="16"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B206" s="15"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="16"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B207" s="15"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="16"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B208" s="15"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4537,7 +5613,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,7 +5663,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4609,7 +5685,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -4634,7 +5710,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4649,7 +5725,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4686,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>18</v>
@@ -4698,16 +5774,16 @@
         <v>46054</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="20" t="s">
         <v>261</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>262</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="4"/>
@@ -4717,16 +5793,30 @@
         <f>+A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2025177387</v>
+      </c>
+      <c r="E8" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>259</v>
+      </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="J8" s="20"/>
       <c r="K8" s="4"/>
     </row>
@@ -4735,11 +5825,21 @@
         <f t="shared" ref="A9:A72" si="0">+A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2025177721</v>
+      </c>
+      <c r="E9" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G9" s="17">
         <v>1</v>
       </c>
@@ -4753,11 +5853,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2025177722</v>
+      </c>
+      <c r="E10" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
@@ -4771,11 +5881,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2025177723</v>
+      </c>
+      <c r="E11" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G11" s="17">
         <v>1</v>
       </c>
@@ -4789,11 +5909,21 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2025177724</v>
+      </c>
+      <c r="E12" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G12" s="17">
         <v>1</v>
       </c>
@@ -4807,11 +5937,21 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2025177725</v>
+      </c>
+      <c r="E13" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G13" s="17">
         <v>1</v>
       </c>
@@ -4825,11 +5965,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2025177726</v>
+      </c>
+      <c r="E14" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
@@ -4843,11 +5993,21 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2025177727</v>
+      </c>
+      <c r="E15" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G15" s="17">
         <v>1</v>
       </c>
@@ -4860,11 +6020,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2025177728</v>
+      </c>
+      <c r="E16" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G16" s="17">
         <v>1</v>
       </c>
@@ -4877,11 +6047,21 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2025177729</v>
+      </c>
+      <c r="E17" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
@@ -4894,11 +6074,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2025177730</v>
+      </c>
+      <c r="E18" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G18" s="17">
         <v>1</v>
       </c>
@@ -4911,11 +6101,21 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2025178011</v>
+      </c>
+      <c r="E19" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G19" s="17">
         <v>1</v>
       </c>
@@ -4928,11 +6128,21 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2025178012</v>
+      </c>
+      <c r="E20" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G20" s="17">
         <v>1</v>
       </c>
@@ -4945,11 +6155,21 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2025178013</v>
+      </c>
+      <c r="E21" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G21" s="17">
         <v>1</v>
       </c>
@@ -4962,11 +6182,21 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2025178014</v>
+      </c>
+      <c r="E22" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
@@ -4979,11 +6209,21 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2025178015</v>
+      </c>
+      <c r="E23" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G23" s="17">
         <v>1</v>
       </c>
@@ -4996,11 +6236,21 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="B24" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2025178016</v>
+      </c>
+      <c r="E24" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
@@ -5013,11 +6263,21 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2025178017</v>
+      </c>
+      <c r="E25" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G25" s="17">
         <v>1</v>
       </c>
@@ -5030,11 +6290,21 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2025178018</v>
+      </c>
+      <c r="E26" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G26" s="17">
         <v>1</v>
       </c>
@@ -5047,15 +6317,25 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+      <c r="B27" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2025178019</v>
+      </c>
+      <c r="E27" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G27" s="17">
         <v>1</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
@@ -5064,15 +6344,25 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2025178020</v>
+      </c>
+      <c r="E28" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G28" s="17">
         <v>1</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
@@ -5081,11 +6371,21 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="15">
+        <v>46054</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
@@ -6461,9 +7761,9 @@
       <c r="H117" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I102">
-    <sortCondition ref="E7:E102"/>
-    <sortCondition ref="D7:D102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I28">
+    <sortCondition ref="E7:E28"/>
+    <sortCondition ref="D7:D28"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3EC688-1894-42B5-A4C5-8E3E1B959718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37582511-EA36-462E-980B-E1DDCE8E0E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janvier 2026 (2)" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="337">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -887,18 +887,12 @@
     <t>Bureau etp larbi cherif</t>
   </si>
   <si>
-    <t>80 lsp bt02 n)30</t>
-  </si>
-  <si>
     <t>B20332</t>
   </si>
   <si>
     <t>Berrached kamel</t>
   </si>
   <si>
-    <t>cite 720 aadl bt17 n6</t>
-  </si>
-  <si>
     <t>B20125</t>
   </si>
   <si>
@@ -966,13 +960,166 @@
   </si>
   <si>
     <t>2024004545</t>
+  </si>
+  <si>
+    <t>2025177389</t>
+  </si>
+  <si>
+    <t>Khelifa merouane</t>
+  </si>
+  <si>
+    <t>rue de l'ALN</t>
+  </si>
+  <si>
+    <t>NB(542/2025)</t>
+  </si>
+  <si>
+    <t>2025178088</t>
+  </si>
+  <si>
+    <t>2025178089</t>
+  </si>
+  <si>
+    <t>Kerboubi riadh</t>
+  </si>
+  <si>
+    <t>cite mohamedi</t>
+  </si>
+  <si>
+    <t>NB(380/2025)</t>
+  </si>
+  <si>
+    <t>Kerboubi med</t>
+  </si>
+  <si>
+    <t>2025178087</t>
+  </si>
+  <si>
+    <t>NB(058/2026)</t>
+  </si>
+  <si>
+    <t>Guellabi fethi</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt14 n10</t>
+  </si>
+  <si>
+    <t>NB(379/2025)</t>
+  </si>
+  <si>
+    <t>B20022</t>
+  </si>
+  <si>
+    <t>2025178082</t>
+  </si>
+  <si>
+    <t>B20040</t>
+  </si>
+  <si>
+    <t>2025177677</t>
+  </si>
+  <si>
+    <t>B20041</t>
+  </si>
+  <si>
+    <t>2025177678</t>
+  </si>
+  <si>
+    <t>B20060</t>
+  </si>
+  <si>
+    <t>2025177679</t>
+  </si>
+  <si>
+    <t>B20085</t>
+  </si>
+  <si>
+    <t>2025178081</t>
+  </si>
+  <si>
+    <t>B20097</t>
+  </si>
+  <si>
+    <t>2025177676</t>
+  </si>
+  <si>
+    <t>B20115</t>
+  </si>
+  <si>
+    <t>2025178086</t>
+  </si>
+  <si>
+    <t>B20165</t>
+  </si>
+  <si>
+    <t>2025178085</t>
+  </si>
+  <si>
+    <t>2025178084</t>
+  </si>
+  <si>
+    <t>B20168</t>
+  </si>
+  <si>
+    <t>B20199</t>
+  </si>
+  <si>
+    <t>2025178083</t>
+  </si>
+  <si>
+    <t>B20247</t>
+  </si>
+  <si>
+    <t>2025177675</t>
+  </si>
+  <si>
+    <t>2025177674</t>
+  </si>
+  <si>
+    <t>NB(055/2026)</t>
+  </si>
+  <si>
+    <t>Younsi samia</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt7 n23</t>
+  </si>
+  <si>
+    <t>2025177672</t>
+  </si>
+  <si>
+    <t>Debab hamza</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt7 n34</t>
+  </si>
+  <si>
+    <t>NB(639/2025)</t>
+  </si>
+  <si>
+    <t>2025177673</t>
+  </si>
+  <si>
+    <t>Attab mahfoud</t>
+  </si>
+  <si>
+    <t>residence chorfi bt B n11</t>
+  </si>
+  <si>
+    <t>NB(048/2026)</t>
+  </si>
+  <si>
+    <t>B20722</t>
+  </si>
+  <si>
+    <t>2025177671</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1196,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1593,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10B43B6-0248-48FC-B214-98DE0DBC6EF4}">
   <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F126" sqref="A1:F126"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,7 +4094,7 @@
         <v>80</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>18</v>
@@ -5612,8 +5765,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,7 +5816,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5685,7 +5838,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -5725,7 +5878,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5782,9 +5935,7 @@
       <c r="H7" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>261</v>
-      </c>
+      <c r="I7" s="20"/>
       <c r="J7" s="19"/>
       <c r="K7" s="4"/>
     </row>
@@ -5812,11 +5963,9 @@
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>264</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="4"/>
     </row>
@@ -5826,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>18</v>
@@ -5854,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>18</v>
@@ -5882,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>18</v>
@@ -5910,7 +6059,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -5938,7 +6087,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
@@ -5966,7 +6115,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>18</v>
@@ -5994,7 +6143,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>18</v>
@@ -6021,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>18</v>
@@ -6048,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>18</v>
@@ -6075,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>18</v>
@@ -6102,7 +6251,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>18</v>
@@ -6129,7 +6278,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>18</v>
@@ -6156,7 +6305,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>18</v>
@@ -6183,7 +6332,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>18</v>
@@ -6210,7 +6359,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>18</v>
@@ -6237,7 +6386,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>18</v>
@@ -6264,7 +6413,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>18</v>
@@ -6291,7 +6440,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>18</v>
@@ -6318,7 +6467,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>18</v>
@@ -6345,7 +6494,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>18</v>
@@ -6372,13 +6521,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="E29" s="15">
         <v>46054</v>
@@ -6398,16 +6547,30 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="15">
+        <v>46055</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,16 +6578,30 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="15">
+        <v>46055</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>297</v>
+      </c>
       <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,16 +6609,30 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="15">
+        <v>46055</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>294</v>
+      </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
+      <c r="H32" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6449,16 +6640,30 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E33" s="15">
+        <v>46055</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>300</v>
+      </c>
       <c r="G33" s="17">
         <v>1</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,11 +6671,21 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
@@ -6483,15 +6698,25 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G35" s="17">
         <v>1</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="20"/>
       <c r="J35" s="4"/>
     </row>
@@ -6500,11 +6725,21 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
@@ -6517,11 +6752,21 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
+      <c r="B37" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G37" s="17">
         <v>1</v>
       </c>
@@ -6534,15 +6779,25 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
+      <c r="B38" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G38" s="17">
         <v>1</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="20"/>
       <c r="J38" s="4"/>
     </row>
@@ -6551,11 +6806,21 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
@@ -6567,11 +6832,21 @@
         <f>+A39+1</f>
         <v>34</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G40" s="17">
         <v>1</v>
       </c>
@@ -6583,11 +6858,21 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
+      <c r="B41" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
@@ -6599,11 +6884,21 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
@@ -6615,11 +6910,21 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
@@ -6631,11 +6936,21 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
+      <c r="B44" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44" s="15">
+        <v>46056</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G44" s="17">
         <v>1</v>
       </c>
@@ -6647,59 +6962,111 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
+      <c r="B45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E45" s="15">
+        <v>46057</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="20"/>
+      <c r="H45" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
+      <c r="B46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" s="15">
+        <v>46057</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>330</v>
+      </c>
       <c r="G46" s="17">
         <v>1</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="20"/>
+      <c r="H46" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" s="15">
+        <v>46057</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>334</v>
+      </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="20"/>
+      <c r="H47" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
+      <c r="B48" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E48" s="15">
+        <v>46058</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G48" s="17">
         <v>1</v>
       </c>
@@ -7761,9 +8128,9 @@
       <c r="H117" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I28">
-    <sortCondition ref="E7:E28"/>
-    <sortCondition ref="D7:D28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I44">
+    <sortCondition ref="E7:E44"/>
+    <sortCondition ref="D7:D44"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>
@@ -7776,6 +8143,7 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.45" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
   <headerFooter>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37582511-EA36-462E-980B-E1DDCE8E0E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCB805-FB46-409F-99C4-BC803CF7CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="368">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -1082,18 +1082,12 @@
     <t>Younsi samia</t>
   </si>
   <si>
-    <t>cite 720 aadl bt7 n23</t>
-  </si>
-  <si>
     <t>2025177672</t>
   </si>
   <si>
     <t>Debab hamza</t>
   </si>
   <si>
-    <t>cite 720 aadl bt7 n34</t>
-  </si>
-  <si>
     <t>NB(639/2025)</t>
   </si>
   <si>
@@ -1103,9 +1097,6 @@
     <t>Attab mahfoud</t>
   </si>
   <si>
-    <t>residence chorfi bt B n11</t>
-  </si>
-  <si>
     <t>NB(048/2026)</t>
   </si>
   <si>
@@ -1113,6 +1104,108 @@
   </si>
   <si>
     <t>2025177671</t>
+  </si>
+  <si>
+    <t>2025177217</t>
+  </si>
+  <si>
+    <t>NB(061/2026)</t>
+  </si>
+  <si>
+    <t>Cherif med</t>
+  </si>
+  <si>
+    <t>2025177219</t>
+  </si>
+  <si>
+    <t>Ahmed khoudja redouane</t>
+  </si>
+  <si>
+    <t>NB(606/2025)</t>
+  </si>
+  <si>
+    <t>2025177216</t>
+  </si>
+  <si>
+    <t>NB(047/2026)</t>
+  </si>
+  <si>
+    <t>2025177213</t>
+  </si>
+  <si>
+    <t>NB(059/2026)</t>
+  </si>
+  <si>
+    <t>2025177218</t>
+  </si>
+  <si>
+    <t>Moussa aek</t>
+  </si>
+  <si>
+    <t>NB(042/2026)</t>
+  </si>
+  <si>
+    <t>2025177211</t>
+  </si>
+  <si>
+    <t>NB(062/2026)</t>
+  </si>
+  <si>
+    <t>Abdellah azzedine</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt15 n35</t>
+  </si>
+  <si>
+    <t>2025177212</t>
+  </si>
+  <si>
+    <t>Haoua hicham</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt17 n37</t>
+  </si>
+  <si>
+    <t>NB(064/2026)</t>
+  </si>
+  <si>
+    <t>2025177215</t>
+  </si>
+  <si>
+    <t>Logt fonction laissaoui houaria</t>
+  </si>
+  <si>
+    <t>lycee bousmaha med chorfa</t>
+  </si>
+  <si>
+    <t>NB(067/2026)</t>
+  </si>
+  <si>
+    <t>2025177370</t>
+  </si>
+  <si>
+    <t>NB(068/2026)</t>
+  </si>
+  <si>
+    <t>Medjadji antar</t>
+  </si>
+  <si>
+    <t>cite 500 aadl bt38 n02</t>
+  </si>
+  <si>
+    <t>2025177214</t>
+  </si>
+  <si>
+    <t>Saoudi hamid</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt14 n28</t>
+  </si>
+  <si>
+    <t>B42060</t>
+  </si>
+  <si>
+    <t>2025177365</t>
   </si>
 </sst>
 </file>
@@ -5766,7 +5859,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,7 +5909,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5838,7 +5931,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -5878,7 +5971,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6969,23 +7062,21 @@
         <v>18</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E45" s="15">
         <v>46057</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -6999,23 +7090,21 @@
         <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E46" s="15">
         <v>46057</v>
       </c>
       <c r="F46" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G46" s="17">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>329</v>
-      </c>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
@@ -7029,23 +7118,21 @@
         <v>18</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E47" s="15">
         <v>46057</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>333</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
@@ -7053,13 +7140,13 @@
         <v>42</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E48" s="15">
         <v>46058</v>
@@ -7078,15 +7165,27 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
+      <c r="B49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E49" s="15">
+        <v>46062</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="G49" s="17">
         <v>1</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -7094,15 +7193,27 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
+      <c r="B50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" s="15">
+        <v>46062</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>341</v>
+      </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -7110,139 +7221,255 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+      <c r="B51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" s="15">
+        <v>46062</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>335</v>
+      </c>
       <c r="G51" s="17">
         <v>1</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="20"/>
+      <c r="H51" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
+      <c r="B52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" s="15">
+        <v>46062</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="20"/>
+      <c r="H52" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
+      <c r="B53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E53" s="15">
+        <v>46062</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="G53" s="17">
         <v>1</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="20"/>
+      <c r="H53" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
+      <c r="B54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" s="15">
+        <v>46063</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="G54" s="17">
         <v>1</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="20"/>
+      <c r="H54" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="15">
+        <v>46064</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="20"/>
+      <c r="H55" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="15">
+        <v>46064</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="20"/>
+      <c r="H56" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="16"/>
+      <c r="B57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E57" s="15">
+        <v>46065</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="20"/>
+      <c r="H57" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="16"/>
+      <c r="B58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E58" s="15">
+        <v>46065</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>360</v>
+      </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="20"/>
+      <c r="H58" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="21"/>
+      <c r="B59" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" s="15">
+        <v>46068</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
@@ -7258,7 +7485,7 @@
       <c r="C60" s="13"/>
       <c r="D60" s="14"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="21"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="17">
         <v>1</v>
       </c>
@@ -7274,7 +7501,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="21"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="17">
         <v>1</v>
       </c>
@@ -7290,7 +7517,7 @@
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="17">
         <v>1</v>
       </c>
@@ -7306,7 +7533,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="21"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="17">
         <v>1</v>
       </c>
@@ -7322,7 +7549,7 @@
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="21"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="17">
         <v>1</v>
       </c>
@@ -7338,7 +7565,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="14"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="21"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="17">
         <v>1</v>
       </c>
@@ -8128,9 +8355,9 @@
       <c r="H117" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I44">
-    <sortCondition ref="E7:E44"/>
-    <sortCondition ref="D7:D44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I58">
+    <sortCondition ref="E7:E58"/>
+    <sortCondition ref="D7:D58"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Suivie pose Compteur 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCB805-FB46-409F-99C4-BC803CF7CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF9CDB-D5CC-44BE-AAEA-245C48D89D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="442">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -1206,6 +1206,228 @@
   </si>
   <si>
     <t>2025177365</t>
+  </si>
+  <si>
+    <t>2025177366</t>
+  </si>
+  <si>
+    <t>NB(070/2026)</t>
+  </si>
+  <si>
+    <t>Amiri habiba</t>
+  </si>
+  <si>
+    <t>2025177362</t>
+  </si>
+  <si>
+    <t>Boutaleb ouahiba</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt10 n37</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt10 n9</t>
+  </si>
+  <si>
+    <t>NB(072/2026)</t>
+  </si>
+  <si>
+    <t>B40348</t>
+  </si>
+  <si>
+    <t>2025177666</t>
+  </si>
+  <si>
+    <t>B40355</t>
+  </si>
+  <si>
+    <t>2025177669</t>
+  </si>
+  <si>
+    <t>B40359</t>
+  </si>
+  <si>
+    <t>2025177664</t>
+  </si>
+  <si>
+    <t>B40360</t>
+  </si>
+  <si>
+    <t>2025177663</t>
+  </si>
+  <si>
+    <t>B40370</t>
+  </si>
+  <si>
+    <t>2025177662</t>
+  </si>
+  <si>
+    <t>B40375</t>
+  </si>
+  <si>
+    <t>2025177668</t>
+  </si>
+  <si>
+    <t>B40376</t>
+  </si>
+  <si>
+    <t>2025177670</t>
+  </si>
+  <si>
+    <t>B40380</t>
+  </si>
+  <si>
+    <t>2025177661</t>
+  </si>
+  <si>
+    <t>2025177665</t>
+  </si>
+  <si>
+    <t>B40406</t>
+  </si>
+  <si>
+    <t>B40555</t>
+  </si>
+  <si>
+    <t>2025177667</t>
+  </si>
+  <si>
+    <t>BC0008</t>
+  </si>
+  <si>
+    <t>2025177363</t>
+  </si>
+  <si>
+    <t>2025177367</t>
+  </si>
+  <si>
+    <t>NB(073/2026)</t>
+  </si>
+  <si>
+    <t>Guesmi mahdjoub</t>
+  </si>
+  <si>
+    <t>cite 720 aadl bt6 n15</t>
+  </si>
+  <si>
+    <t>B40226</t>
+  </si>
+  <si>
+    <t>2025177710</t>
+  </si>
+  <si>
+    <t>B40236</t>
+  </si>
+  <si>
+    <t>2025177708</t>
+  </si>
+  <si>
+    <t>B40275</t>
+  </si>
+  <si>
+    <t>2025177703</t>
+  </si>
+  <si>
+    <t>B40286</t>
+  </si>
+  <si>
+    <t>2025177702</t>
+  </si>
+  <si>
+    <t>B40292</t>
+  </si>
+  <si>
+    <t>2025177701</t>
+  </si>
+  <si>
+    <t>B40293</t>
+  </si>
+  <si>
+    <t>2025177705</t>
+  </si>
+  <si>
+    <t>B40298</t>
+  </si>
+  <si>
+    <t>2025177704</t>
+  </si>
+  <si>
+    <t>B40303</t>
+  </si>
+  <si>
+    <t>2025177706</t>
+  </si>
+  <si>
+    <t>B40307</t>
+  </si>
+  <si>
+    <t>2025177707</t>
+  </si>
+  <si>
+    <t>B40311</t>
+  </si>
+  <si>
+    <t>2025177709</t>
+  </si>
+  <si>
+    <t>B40096</t>
+  </si>
+  <si>
+    <t>2025177507</t>
+  </si>
+  <si>
+    <t>B40117</t>
+  </si>
+  <si>
+    <t>2025177505</t>
+  </si>
+  <si>
+    <t>B40124</t>
+  </si>
+  <si>
+    <t>2025177506</t>
+  </si>
+  <si>
+    <t>2025177504</t>
+  </si>
+  <si>
+    <t>B40148</t>
+  </si>
+  <si>
+    <t>B40250</t>
+  </si>
+  <si>
+    <t>2025177501</t>
+  </si>
+  <si>
+    <t>B40254</t>
+  </si>
+  <si>
+    <t>2025177502</t>
+  </si>
+  <si>
+    <t>B40256</t>
+  </si>
+  <si>
+    <t>2025177510</t>
+  </si>
+  <si>
+    <t>B40321</t>
+  </si>
+  <si>
+    <t>2025177509</t>
+  </si>
+  <si>
+    <t>B40337</t>
+  </si>
+  <si>
+    <t>2025177503</t>
+  </si>
+  <si>
+    <t>B40338</t>
+  </si>
+  <si>
+    <t>2025177508</t>
   </si>
 </sst>
 </file>
@@ -5858,8 +6080,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5909,7 +6131,7 @@
       <c r="J2" s="24"/>
       <c r="K2" s="6">
         <f>SUMIF(F7:F364,"Elimination*",G7:G364)</f>
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5931,7 +6153,7 @@
       <c r="J3" s="24"/>
       <c r="K3" s="6">
         <f>SUMIF(F7:F364,"NB*",G7:G364)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -5971,7 +6193,7 @@
       <c r="J5" s="24"/>
       <c r="K5" s="8">
         <f>SUM(K2:K4)</f>
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7481,59 +7703,106 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="16"/>
+      <c r="B60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E60" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>375</v>
+      </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="20"/>
+      <c r="H60" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+      <c r="B61" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="20"/>
+      <c r="H61" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="B62" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E62" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
+      <c r="B63" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E63" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
@@ -7545,11 +7814,21 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="B64" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G64" s="17">
         <v>1</v>
       </c>
@@ -7561,11 +7840,21 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
+      <c r="B65" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G65" s="17">
         <v>1</v>
       </c>
@@ -7577,27 +7866,46 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="21"/>
+      <c r="B66" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G66" s="17">
         <v>1</v>
       </c>
       <c r="H66" s="4"/>
-      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="21"/>
+      <c r="B67" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E67" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G67" s="17">
         <v>1</v>
       </c>
@@ -7609,11 +7917,21 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
+      <c r="B68" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E68" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
@@ -7624,41 +7942,73 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="16"/>
+      <c r="B69" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="4"/>
+      <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
+      <c r="B70" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E70" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="4"/>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
+      <c r="B71" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E71" s="15">
+        <v>46069</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G71" s="17">
         <v>1</v>
       </c>
@@ -7669,11 +8019,21 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="16"/>
+      <c r="B72" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G72" s="17">
         <v>1</v>
       </c>
@@ -7684,26 +8044,51 @@
         <f t="shared" ref="A73:A117" si="1">+A72+1</f>
         <v>67</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
+      <c r="B73" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E73" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>399</v>
+      </c>
       <c r="G73" s="17">
         <v>1</v>
       </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
+      <c r="B74" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E74" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
@@ -7714,11 +8099,21 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
+      <c r="B75" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G75" s="17">
         <v>1</v>
       </c>
@@ -7729,11 +8124,21 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
+      <c r="B76" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E76" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
@@ -7744,11 +8149,21 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
+      <c r="B77" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E77" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G77" s="17">
         <v>1</v>
       </c>
@@ -7759,11 +8174,21 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
+      <c r="B78" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E78" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G78" s="17">
         <v>1</v>
       </c>
@@ -7774,11 +8199,21 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
+      <c r="B79" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E79" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
@@ -7789,11 +8224,21 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16"/>
+      <c r="B80" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G80" s="17">
         <v>1</v>
       </c>
@@ -7804,11 +8249,21 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
+      <c r="B81" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E81" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
@@ -7819,11 +8274,21 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
+      <c r="B82" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E82" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G82" s="17">
         <v>1</v>
       </c>
@@ -7834,11 +8299,21 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
+      <c r="B83" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E83" s="15">
+        <v>46070</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G83" s="17">
         <v>1</v>
       </c>
@@ -7849,11 +8324,21 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
+      <c r="B84" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E84" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G84" s="17">
         <v>1</v>
       </c>
@@ -7864,11 +8349,21 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
+      <c r="B85" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E85" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G85" s="17">
         <v>1</v>
       </c>
@@ -7879,11 +8374,21 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
+      <c r="B86" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E86" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G86" s="17">
         <v>1</v>
       </c>
@@ -7894,11 +8399,21 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
+      <c r="B87" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E87" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G87" s="17">
         <v>1</v>
       </c>
@@ -7909,11 +8424,21 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="16"/>
+      <c r="B88" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G88" s="17">
         <v>1</v>
       </c>
@@ -7924,11 +8449,21 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
+      <c r="B89" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E89" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G89" s="17">
         <v>1</v>
       </c>
@@ -7939,11 +8474,21 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="16"/>
+      <c r="B90" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E90" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G90" s="17">
         <v>1</v>
       </c>
@@ -7954,11 +8499,21 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="16"/>
+      <c r="B91" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E91" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G91" s="17">
         <v>1</v>
       </c>
@@ -7969,11 +8524,21 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="16"/>
+      <c r="B92" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E92" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G92" s="17">
         <v>1</v>
       </c>
@@ -7984,11 +8549,21 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="16"/>
+      <c r="B93" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E93" s="15">
+        <v>46071</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="G93" s="17">
         <v>1</v>
       </c>
@@ -8355,9 +8930,9 @@
       <c r="H117" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I58">
-    <sortCondition ref="E7:E58"/>
-    <sortCondition ref="D7:D58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I93">
+    <sortCondition ref="E7:E93"/>
+    <sortCondition ref="D7:D93"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A5:F5"/>
